--- a/cta策略/result/螺纹/MACD_1d/wfo_最优两组参数signal.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/wfo_最优两组参数signal.xlsx
@@ -600,7 +600,7 @@
         <v>41689</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>41690</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>41691</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>41694</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -644,10 +644,10 @@
         <v>41695</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -655,10 +655,10 @@
         <v>41696</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,10 +666,10 @@
         <v>41697</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -677,10 +677,10 @@
         <v>41698</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -688,10 +688,10 @@
         <v>41701</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -699,10 +699,10 @@
         <v>41702</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -710,10 +710,10 @@
         <v>41703</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -721,10 +721,10 @@
         <v>41704</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -732,10 +732,10 @@
         <v>41705</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -743,10 +743,10 @@
         <v>41708</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -754,10 +754,10 @@
         <v>41709</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -765,10 +765,10 @@
         <v>41710</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -787,10 +787,10 @@
         <v>41712</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,10 @@
         <v>41715</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -809,10 +809,10 @@
         <v>41716</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -820,10 +820,10 @@
         <v>41717</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -831,10 +831,10 @@
         <v>41718</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -842,10 +842,10 @@
         <v>41719</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -853,10 +853,10 @@
         <v>41722</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -864,10 +864,10 @@
         <v>41723</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -875,10 +875,10 @@
         <v>41724</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -886,10 +886,10 @@
         <v>41725</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -897,10 +897,10 @@
         <v>41726</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -908,10 +908,10 @@
         <v>41729</v>
       </c>
       <c r="B48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -919,10 +919,10 @@
         <v>41730</v>
       </c>
       <c r="B49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -930,10 +930,10 @@
         <v>41731</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -941,10 +941,10 @@
         <v>41732</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -952,10 +952,10 @@
         <v>41733</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -963,10 +963,10 @@
         <v>41737</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -974,10 +974,10 @@
         <v>41738</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -985,10 +985,10 @@
         <v>41739</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -996,10 +996,10 @@
         <v>41740</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>41743</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>41744</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>41745</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>41746</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>41747</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>41750</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>41751</v>
       </c>
       <c r="B63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1084,10 +1084,10 @@
         <v>41752</v>
       </c>
       <c r="B64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1095,10 +1095,10 @@
         <v>41753</v>
       </c>
       <c r="B65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>41754</v>
       </c>
       <c r="B66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>41757</v>
       </c>
       <c r="B67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1128,10 +1128,10 @@
         <v>41758</v>
       </c>
       <c r="B68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1139,10 +1139,10 @@
         <v>41759</v>
       </c>
       <c r="B69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1150,10 +1150,10 @@
         <v>41764</v>
       </c>
       <c r="B70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1161,10 +1161,10 @@
         <v>41765</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1172,10 +1172,10 @@
         <v>41766</v>
       </c>
       <c r="B72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1183,10 +1183,10 @@
         <v>41767</v>
       </c>
       <c r="B73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1194,10 +1194,10 @@
         <v>41768</v>
       </c>
       <c r="B74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1205,10 +1205,10 @@
         <v>41771</v>
       </c>
       <c r="B75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1216,10 +1216,10 @@
         <v>41772</v>
       </c>
       <c r="B76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>41773</v>
       </c>
       <c r="B77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>41774</v>
       </c>
       <c r="B78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1249,10 +1249,10 @@
         <v>41775</v>
       </c>
       <c r="B79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1260,10 +1260,10 @@
         <v>41778</v>
       </c>
       <c r="B80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>41779</v>
       </c>
       <c r="B81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>41780</v>
       </c>
       <c r="B82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>41781</v>
       </c>
       <c r="B83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>41782</v>
       </c>
       <c r="B84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1315,10 +1315,10 @@
         <v>41785</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>41786</v>
       </c>
       <c r="B86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>41787</v>
       </c>
       <c r="B87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>41788</v>
       </c>
       <c r="B88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>41789</v>
       </c>
       <c r="B89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>41793</v>
       </c>
       <c r="B90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>41794</v>
       </c>
       <c r="B91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>41795</v>
       </c>
       <c r="B92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>41796</v>
       </c>
       <c r="B93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>41799</v>
       </c>
       <c r="B94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>41800</v>
       </c>
       <c r="B95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>41801</v>
       </c>
       <c r="B96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>41802</v>
       </c>
       <c r="B97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>41803</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>41806</v>
       </c>
       <c r="B99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>41807</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>41808</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>41809</v>
       </c>
       <c r="B102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>41810</v>
       </c>
       <c r="B103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>41813</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>41814</v>
       </c>
       <c r="B105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>41815</v>
       </c>
       <c r="B106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>41816</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>41817</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>41820</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>41821</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>41822</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>41823</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>41824</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>41827</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>41828</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>41829</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>41830</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>41831</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>41834</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>41835</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>41836</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>41837</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>41838</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>41841</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>41842</v>
       </c>
       <c r="B125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>41843</v>
       </c>
       <c r="B126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>41844</v>
       </c>
       <c r="B127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>41845</v>
       </c>
       <c r="B128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>41848</v>
       </c>
       <c r="B129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>41849</v>
       </c>
       <c r="B130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>41850</v>
       </c>
       <c r="B131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>41851</v>
       </c>
       <c r="B132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>41852</v>
       </c>
       <c r="B133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>41855</v>
       </c>
       <c r="B134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>41856</v>
       </c>
       <c r="B135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>41857</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>41858</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>41859</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>41862</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>41863</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>41864</v>
       </c>
       <c r="B141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>41865</v>
       </c>
       <c r="B142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>41866</v>
       </c>
       <c r="B143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>41869</v>
       </c>
       <c r="B144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>41870</v>
       </c>
       <c r="B145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>41871</v>
       </c>
       <c r="B146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>41872</v>
       </c>
       <c r="B147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>41873</v>
       </c>
       <c r="B148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>41876</v>
       </c>
       <c r="B149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>41877</v>
       </c>
       <c r="B150">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>41878</v>
       </c>
       <c r="B151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>41879</v>
       </c>
       <c r="B152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>41880</v>
       </c>
       <c r="B153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>41883</v>
       </c>
       <c r="B154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>41884</v>
       </c>
       <c r="B155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>41885</v>
       </c>
       <c r="B156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>41886</v>
       </c>
       <c r="B157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>41887</v>
       </c>
       <c r="B158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>41891</v>
       </c>
       <c r="B159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>41892</v>
       </c>
       <c r="B160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>41893</v>
       </c>
       <c r="B161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>41894</v>
       </c>
       <c r="B162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C162">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>41897</v>
       </c>
       <c r="B163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>41898</v>
       </c>
       <c r="B164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>41899</v>
       </c>
       <c r="B165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>41900</v>
       </c>
       <c r="B166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>41901</v>
       </c>
       <c r="B167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>41904</v>
       </c>
       <c r="B168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>41905</v>
       </c>
       <c r="B169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>41906</v>
       </c>
       <c r="B170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>41907</v>
       </c>
       <c r="B171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>41908</v>
       </c>
       <c r="B172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>41911</v>
       </c>
       <c r="B173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>41912</v>
       </c>
       <c r="B174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>41920</v>
       </c>
       <c r="B175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>41921</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>41922</v>
       </c>
       <c r="B177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>41925</v>
       </c>
       <c r="B178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>41926</v>
       </c>
       <c r="B179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>41927</v>
       </c>
       <c r="B180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2371,10 +2371,10 @@
         <v>41928</v>
       </c>
       <c r="B181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>41929</v>
       </c>
       <c r="B182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>41932</v>
       </c>
       <c r="B183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>41933</v>
       </c>
       <c r="B184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>41934</v>
       </c>
       <c r="B185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>41935</v>
       </c>
       <c r="B186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>41936</v>
       </c>
       <c r="B187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>41939</v>
       </c>
       <c r="B188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>41940</v>
       </c>
       <c r="B189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>41941</v>
       </c>
       <c r="B190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>41942</v>
       </c>
       <c r="B191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>41943</v>
       </c>
       <c r="B192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C192">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2503,10 +2503,10 @@
         <v>41946</v>
       </c>
       <c r="B193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>41947</v>
       </c>
       <c r="B194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>41948</v>
       </c>
       <c r="B195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>41949</v>
       </c>
       <c r="B196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>41950</v>
       </c>
       <c r="B197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>41953</v>
       </c>
       <c r="B198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>41954</v>
       </c>
       <c r="B199">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C199">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>41955</v>
       </c>
       <c r="B200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>41956</v>
       </c>
       <c r="B201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>41957</v>
       </c>
       <c r="B202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>41960</v>
       </c>
       <c r="B203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C203">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>41961</v>
       </c>
       <c r="B204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>41962</v>
       </c>
       <c r="B205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>41963</v>
       </c>
       <c r="B206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>41964</v>
       </c>
       <c r="B207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C207">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>41967</v>
       </c>
       <c r="B208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>41968</v>
       </c>
       <c r="B209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C209">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>41969</v>
       </c>
       <c r="B210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C210">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>41970</v>
       </c>
       <c r="B211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>41971</v>
       </c>
       <c r="B212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>41974</v>
       </c>
       <c r="B213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2734,10 +2734,10 @@
         <v>41975</v>
       </c>
       <c r="B214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2745,10 +2745,10 @@
         <v>41976</v>
       </c>
       <c r="B215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2756,10 +2756,10 @@
         <v>41977</v>
       </c>
       <c r="B216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2767,10 +2767,10 @@
         <v>41978</v>
       </c>
       <c r="B217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2778,10 +2778,10 @@
         <v>41981</v>
       </c>
       <c r="B218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2789,10 +2789,10 @@
         <v>41982</v>
       </c>
       <c r="B219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2800,10 +2800,10 @@
         <v>41983</v>
       </c>
       <c r="B220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2811,10 +2811,10 @@
         <v>41984</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2822,10 +2822,10 @@
         <v>41985</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2833,10 +2833,10 @@
         <v>41988</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2844,10 +2844,10 @@
         <v>41989</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>41990</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>41991</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>41992</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>41995</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2899,10 +2899,10 @@
         <v>41996</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2910,10 +2910,10 @@
         <v>41997</v>
       </c>
       <c r="B230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2921,10 +2921,10 @@
         <v>41998</v>
       </c>
       <c r="B231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2932,10 +2932,10 @@
         <v>41999</v>
       </c>
       <c r="B232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2943,10 +2943,10 @@
         <v>42002</v>
       </c>
       <c r="B233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C233">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2954,10 +2954,10 @@
         <v>42003</v>
       </c>
       <c r="B234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2965,10 +2965,10 @@
         <v>42004</v>
       </c>
       <c r="B235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2976,10 +2976,10 @@
         <v>42009</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2987,10 +2987,10 @@
         <v>42010</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2998,10 +2998,10 @@
         <v>42011</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3009,10 +3009,10 @@
         <v>42012</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3020,10 +3020,10 @@
         <v>42013</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3031,10 +3031,10 @@
         <v>42016</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>42017</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>42018</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3064,10 +3064,10 @@
         <v>42019</v>
       </c>
       <c r="B244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3075,10 +3075,10 @@
         <v>42020</v>
       </c>
       <c r="B245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3086,10 +3086,10 @@
         <v>42023</v>
       </c>
       <c r="B246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3097,10 +3097,10 @@
         <v>42024</v>
       </c>
       <c r="B247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3108,10 +3108,10 @@
         <v>42025</v>
       </c>
       <c r="B248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>42026</v>
       </c>
       <c r="B249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>42027</v>
       </c>
       <c r="B250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>42030</v>
       </c>
       <c r="B251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>42031</v>
       </c>
       <c r="B252">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3163,10 +3163,10 @@
         <v>42032</v>
       </c>
       <c r="B253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3174,10 +3174,10 @@
         <v>42033</v>
       </c>
       <c r="B254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3185,10 +3185,10 @@
         <v>42034</v>
       </c>
       <c r="B255">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3196,10 +3196,10 @@
         <v>42037</v>
       </c>
       <c r="B256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3207,10 +3207,10 @@
         <v>42038</v>
       </c>
       <c r="B257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3218,10 +3218,10 @@
         <v>42039</v>
       </c>
       <c r="B258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>42040</v>
       </c>
       <c r="B259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3240,10 +3240,10 @@
         <v>42041</v>
       </c>
       <c r="B260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3251,10 +3251,10 @@
         <v>42044</v>
       </c>
       <c r="B261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C261">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3262,10 +3262,10 @@
         <v>42045</v>
       </c>
       <c r="B262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C262">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3273,10 +3273,10 @@
         <v>42046</v>
       </c>
       <c r="B263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3284,10 +3284,10 @@
         <v>42047</v>
       </c>
       <c r="B264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3295,10 +3295,10 @@
         <v>42048</v>
       </c>
       <c r="B265">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3306,10 +3306,10 @@
         <v>42051</v>
       </c>
       <c r="B266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3317,10 +3317,10 @@
         <v>42052</v>
       </c>
       <c r="B267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3328,10 +3328,10 @@
         <v>42060</v>
       </c>
       <c r="B268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3339,10 +3339,10 @@
         <v>42061</v>
       </c>
       <c r="B269">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3350,10 +3350,10 @@
         <v>42062</v>
       </c>
       <c r="B270">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3361,10 +3361,10 @@
         <v>42065</v>
       </c>
       <c r="B271">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4362,10 +4362,10 @@
         <v>42195</v>
       </c>
       <c r="B362">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C362">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4373,10 +4373,10 @@
         <v>42198</v>
       </c>
       <c r="B363">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C363">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4384,10 +4384,10 @@
         <v>42199</v>
       </c>
       <c r="B364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C364">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4395,10 +4395,10 @@
         <v>42200</v>
       </c>
       <c r="B365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C365">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4406,10 +4406,10 @@
         <v>42201</v>
       </c>
       <c r="B366">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C366">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4417,10 +4417,10 @@
         <v>42202</v>
       </c>
       <c r="B367">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C367">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4428,10 +4428,10 @@
         <v>42205</v>
       </c>
       <c r="B368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C368">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4439,10 +4439,10 @@
         <v>42206</v>
       </c>
       <c r="B369">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C369">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4450,10 +4450,10 @@
         <v>42207</v>
       </c>
       <c r="B370">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C370">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4461,10 +4461,10 @@
         <v>42208</v>
       </c>
       <c r="B371">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C371">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4472,10 +4472,10 @@
         <v>42209</v>
       </c>
       <c r="B372">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C372">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4483,10 +4483,10 @@
         <v>42212</v>
       </c>
       <c r="B373">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C373">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4494,10 +4494,10 @@
         <v>42213</v>
       </c>
       <c r="B374">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4505,10 +4505,10 @@
         <v>42214</v>
       </c>
       <c r="B375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4516,10 +4516,10 @@
         <v>42215</v>
       </c>
       <c r="B376">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C376">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4527,10 +4527,10 @@
         <v>42216</v>
       </c>
       <c r="B377">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C377">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4538,10 +4538,10 @@
         <v>42219</v>
       </c>
       <c r="B378">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C378">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4549,10 +4549,10 @@
         <v>42220</v>
       </c>
       <c r="B379">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C379">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4560,10 +4560,10 @@
         <v>42221</v>
       </c>
       <c r="B380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C380">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4571,10 +4571,10 @@
         <v>42222</v>
       </c>
       <c r="B381">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4582,10 +4582,10 @@
         <v>42223</v>
       </c>
       <c r="B382">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C382">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4593,10 +4593,10 @@
         <v>42226</v>
       </c>
       <c r="B383">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C383">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4604,10 +4604,10 @@
         <v>42227</v>
       </c>
       <c r="B384">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4615,10 +4615,10 @@
         <v>42228</v>
       </c>
       <c r="B385">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4626,10 +4626,10 @@
         <v>42229</v>
       </c>
       <c r="B386">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C386">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4637,10 +4637,10 @@
         <v>42230</v>
       </c>
       <c r="B387">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C387">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4648,10 +4648,10 @@
         <v>42233</v>
       </c>
       <c r="B388">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C388">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4659,10 +4659,10 @@
         <v>42234</v>
       </c>
       <c r="B389">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C389">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4670,10 +4670,10 @@
         <v>42235</v>
       </c>
       <c r="B390">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4681,10 +4681,10 @@
         <v>42236</v>
       </c>
       <c r="B391">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4692,10 +4692,10 @@
         <v>42237</v>
       </c>
       <c r="B392">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C392">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4703,10 +4703,10 @@
         <v>42240</v>
       </c>
       <c r="B393">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4714,10 +4714,10 @@
         <v>42241</v>
       </c>
       <c r="B394">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C394">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4725,10 +4725,10 @@
         <v>42242</v>
       </c>
       <c r="B395">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4736,10 +4736,10 @@
         <v>42243</v>
       </c>
       <c r="B396">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4747,10 +4747,10 @@
         <v>42244</v>
       </c>
       <c r="B397">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C397">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4758,10 +4758,10 @@
         <v>42247</v>
       </c>
       <c r="B398">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C398">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4769,10 +4769,10 @@
         <v>42248</v>
       </c>
       <c r="B399">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C399">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4780,10 +4780,10 @@
         <v>42249</v>
       </c>
       <c r="B400">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4791,10 +4791,10 @@
         <v>42254</v>
       </c>
       <c r="B401">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C401">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4802,10 +4802,10 @@
         <v>42255</v>
       </c>
       <c r="B402">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4813,10 +4813,10 @@
         <v>42256</v>
       </c>
       <c r="B403">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C403">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4824,10 +4824,10 @@
         <v>42257</v>
       </c>
       <c r="B404">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4835,10 +4835,10 @@
         <v>42258</v>
       </c>
       <c r="B405">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C405">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4846,10 +4846,10 @@
         <v>42261</v>
       </c>
       <c r="B406">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C406">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4857,10 +4857,10 @@
         <v>42262</v>
       </c>
       <c r="B407">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C407">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4868,10 +4868,10 @@
         <v>42263</v>
       </c>
       <c r="B408">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C408">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4879,10 +4879,10 @@
         <v>42264</v>
       </c>
       <c r="B409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4890,10 +4890,10 @@
         <v>42265</v>
       </c>
       <c r="B410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4901,10 +4901,10 @@
         <v>42268</v>
       </c>
       <c r="B411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C411">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4912,10 +4912,10 @@
         <v>42269</v>
       </c>
       <c r="B412">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4923,10 +4923,10 @@
         <v>42270</v>
       </c>
       <c r="B413">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4934,10 +4934,10 @@
         <v>42271</v>
       </c>
       <c r="B414">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C414">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4945,10 +4945,10 @@
         <v>42272</v>
       </c>
       <c r="B415">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4956,10 +4956,10 @@
         <v>42275</v>
       </c>
       <c r="B416">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4967,10 +4967,10 @@
         <v>42276</v>
       </c>
       <c r="B417">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4978,10 +4978,10 @@
         <v>42277</v>
       </c>
       <c r="B418">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C418">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4989,10 +4989,10 @@
         <v>42285</v>
       </c>
       <c r="B419">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5000,10 +5000,10 @@
         <v>42286</v>
       </c>
       <c r="B420">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C420">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5011,10 +5011,10 @@
         <v>42289</v>
       </c>
       <c r="B421">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C421">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5022,10 +5022,10 @@
         <v>42290</v>
       </c>
       <c r="B422">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C422">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5033,10 +5033,10 @@
         <v>42291</v>
       </c>
       <c r="B423">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C423">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5044,10 +5044,10 @@
         <v>42292</v>
       </c>
       <c r="B424">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C424">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5055,10 +5055,10 @@
         <v>42293</v>
       </c>
       <c r="B425">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C425">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5066,10 +5066,10 @@
         <v>42296</v>
       </c>
       <c r="B426">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C426">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5077,10 +5077,10 @@
         <v>42297</v>
       </c>
       <c r="B427">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5088,10 +5088,10 @@
         <v>42298</v>
       </c>
       <c r="B428">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C428">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5099,10 +5099,10 @@
         <v>42299</v>
       </c>
       <c r="B429">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C429">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5110,10 +5110,10 @@
         <v>42300</v>
       </c>
       <c r="B430">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C430">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5121,10 +5121,10 @@
         <v>42303</v>
       </c>
       <c r="B431">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C431">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5132,10 +5132,10 @@
         <v>42304</v>
       </c>
       <c r="B432">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C432">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5143,10 +5143,10 @@
         <v>42305</v>
       </c>
       <c r="B433">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C433">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5154,10 +5154,10 @@
         <v>42306</v>
       </c>
       <c r="B434">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5165,10 +5165,10 @@
         <v>42307</v>
       </c>
       <c r="B435">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5176,10 +5176,10 @@
         <v>42310</v>
       </c>
       <c r="B436">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5187,10 +5187,10 @@
         <v>42311</v>
       </c>
       <c r="B437">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5198,10 +5198,10 @@
         <v>42312</v>
       </c>
       <c r="B438">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C438">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5209,10 +5209,10 @@
         <v>42313</v>
       </c>
       <c r="B439">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C439">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5220,10 +5220,10 @@
         <v>42314</v>
       </c>
       <c r="B440">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C440">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5231,10 +5231,10 @@
         <v>42317</v>
       </c>
       <c r="B441">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C441">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5242,10 +5242,10 @@
         <v>42318</v>
       </c>
       <c r="B442">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C442">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5253,10 +5253,10 @@
         <v>42319</v>
       </c>
       <c r="B443">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C443">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5264,10 +5264,10 @@
         <v>42320</v>
       </c>
       <c r="B444">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C444">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5275,10 +5275,10 @@
         <v>42321</v>
       </c>
       <c r="B445">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C445">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5286,10 +5286,10 @@
         <v>42324</v>
       </c>
       <c r="B446">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C446">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5297,10 +5297,10 @@
         <v>42325</v>
       </c>
       <c r="B447">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C447">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5308,10 +5308,10 @@
         <v>42326</v>
       </c>
       <c r="B448">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C448">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5319,10 +5319,10 @@
         <v>42327</v>
       </c>
       <c r="B449">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C449">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5572,10 +5572,10 @@
         <v>42360</v>
       </c>
       <c r="B472">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C472">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5583,10 +5583,10 @@
         <v>42361</v>
       </c>
       <c r="B473">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C473">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5594,10 +5594,10 @@
         <v>42362</v>
       </c>
       <c r="B474">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C474">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5605,10 +5605,10 @@
         <v>42363</v>
       </c>
       <c r="B475">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C475">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5616,10 +5616,10 @@
         <v>42366</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5627,10 +5627,10 @@
         <v>42367</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5638,10 +5638,10 @@
         <v>42368</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5649,10 +5649,10 @@
         <v>42369</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5660,10 +5660,10 @@
         <v>42373</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5671,10 +5671,10 @@
         <v>42374</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5682,10 +5682,10 @@
         <v>42375</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5693,10 +5693,10 @@
         <v>42376</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5704,10 +5704,10 @@
         <v>42377</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5715,10 +5715,10 @@
         <v>42380</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5726,10 +5726,10 @@
         <v>42381</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5737,10 +5737,10 @@
         <v>42382</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5748,10 +5748,10 @@
         <v>42383</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5759,10 +5759,10 @@
         <v>42384</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5770,10 +5770,10 @@
         <v>42387</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5781,10 +5781,10 @@
         <v>42388</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6309,10 +6309,10 @@
         <v>42461</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6320,10 +6320,10 @@
         <v>42465</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6573,10 +6573,10 @@
         <v>42499</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C563">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6595,10 +6595,10 @@
         <v>42501</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6815,10 +6815,10 @@
         <v>42529</v>
       </c>
       <c r="B585">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C585">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6826,10 +6826,10 @@
         <v>42534</v>
       </c>
       <c r="B586">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C586">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6837,10 +6837,10 @@
         <v>42535</v>
       </c>
       <c r="B587">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C587">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6848,10 +6848,10 @@
         <v>42536</v>
       </c>
       <c r="B588">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C588">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6859,10 +6859,10 @@
         <v>42537</v>
       </c>
       <c r="B589">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C589">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6870,10 +6870,10 @@
         <v>42538</v>
       </c>
       <c r="B590">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C590">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6881,10 +6881,10 @@
         <v>42541</v>
       </c>
       <c r="B591">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C591">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6892,10 +6892,10 @@
         <v>42542</v>
       </c>
       <c r="B592">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C592">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6903,10 +6903,10 @@
         <v>42543</v>
       </c>
       <c r="B593">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C593">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6914,10 +6914,10 @@
         <v>42544</v>
       </c>
       <c r="B594">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C594">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6925,10 +6925,10 @@
         <v>42545</v>
       </c>
       <c r="B595">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C595">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6936,10 +6936,10 @@
         <v>42548</v>
       </c>
       <c r="B596">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C596">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6947,10 +6947,10 @@
         <v>42549</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6958,10 +6958,10 @@
         <v>42550</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6969,10 +6969,10 @@
         <v>42551</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6980,10 +6980,10 @@
         <v>42552</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6991,10 +6991,10 @@
         <v>42555</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7002,10 +7002,10 @@
         <v>42556</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7013,10 +7013,10 @@
         <v>42557</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7024,10 +7024,10 @@
         <v>42558</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7035,10 +7035,10 @@
         <v>42559</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7046,10 +7046,10 @@
         <v>42562</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7057,10 +7057,10 @@
         <v>42563</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7068,10 +7068,10 @@
         <v>42564</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7079,10 +7079,10 @@
         <v>42565</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7090,10 +7090,10 @@
         <v>42566</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7101,10 +7101,10 @@
         <v>42569</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7112,10 +7112,10 @@
         <v>42570</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7123,10 +7123,10 @@
         <v>42571</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7134,10 +7134,10 @@
         <v>42572</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7145,10 +7145,10 @@
         <v>42573</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7156,10 +7156,10 @@
         <v>42576</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7167,10 +7167,10 @@
         <v>42577</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7178,10 +7178,10 @@
         <v>42578</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7189,10 +7189,10 @@
         <v>42579</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7200,10 +7200,10 @@
         <v>42580</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7211,10 +7211,10 @@
         <v>42583</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7222,10 +7222,10 @@
         <v>42584</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7233,10 +7233,10 @@
         <v>42585</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7244,10 +7244,10 @@
         <v>42586</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7255,10 +7255,10 @@
         <v>42587</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7266,10 +7266,10 @@
         <v>42590</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7277,10 +7277,10 @@
         <v>42591</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7288,10 +7288,10 @@
         <v>42592</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7299,10 +7299,10 @@
         <v>42593</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7310,10 +7310,10 @@
         <v>42594</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7321,10 +7321,10 @@
         <v>42597</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7332,10 +7332,10 @@
         <v>42598</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7343,10 +7343,10 @@
         <v>42599</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7354,10 +7354,10 @@
         <v>42600</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7365,10 +7365,10 @@
         <v>42601</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7376,10 +7376,10 @@
         <v>42604</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7387,10 +7387,10 @@
         <v>42605</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7398,10 +7398,10 @@
         <v>42606</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7409,10 +7409,10 @@
         <v>42607</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7420,10 +7420,10 @@
         <v>42608</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7431,10 +7431,10 @@
         <v>42611</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7442,10 +7442,10 @@
         <v>42612</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7453,10 +7453,10 @@
         <v>42613</v>
       </c>
       <c r="B643">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C643">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7464,10 +7464,10 @@
         <v>42614</v>
       </c>
       <c r="B644">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C644">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7475,10 +7475,10 @@
         <v>42615</v>
       </c>
       <c r="B645">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C645">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7486,10 +7486,10 @@
         <v>42618</v>
       </c>
       <c r="B646">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C646">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7497,10 +7497,10 @@
         <v>42619</v>
       </c>
       <c r="B647">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C647">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7508,10 +7508,10 @@
         <v>42620</v>
       </c>
       <c r="B648">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C648">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7519,10 +7519,10 @@
         <v>42621</v>
       </c>
       <c r="B649">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C649">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7530,10 +7530,10 @@
         <v>42622</v>
       </c>
       <c r="B650">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C650">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7541,10 +7541,10 @@
         <v>42625</v>
       </c>
       <c r="B651">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C651">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7552,10 +7552,10 @@
         <v>42626</v>
       </c>
       <c r="B652">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C652">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7563,10 +7563,10 @@
         <v>42627</v>
       </c>
       <c r="B653">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C653">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7574,10 +7574,10 @@
         <v>42632</v>
       </c>
       <c r="B654">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C654">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7585,10 +7585,10 @@
         <v>42633</v>
       </c>
       <c r="B655">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C655">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7596,10 +7596,10 @@
         <v>42634</v>
       </c>
       <c r="B656">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C656">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7607,10 +7607,10 @@
         <v>42635</v>
       </c>
       <c r="B657">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C657">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7618,10 +7618,10 @@
         <v>42636</v>
       </c>
       <c r="B658">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C658">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7629,10 +7629,10 @@
         <v>42639</v>
       </c>
       <c r="B659">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C659">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7640,10 +7640,10 @@
         <v>42640</v>
       </c>
       <c r="B660">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C660">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7651,10 +7651,10 @@
         <v>42641</v>
       </c>
       <c r="B661">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C661">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7662,10 +7662,10 @@
         <v>42642</v>
       </c>
       <c r="B662">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C662">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7673,10 +7673,10 @@
         <v>42643</v>
       </c>
       <c r="B663">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C663">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7684,10 +7684,10 @@
         <v>42653</v>
       </c>
       <c r="B664">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C664">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7695,10 +7695,10 @@
         <v>42654</v>
       </c>
       <c r="B665">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C665">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7706,10 +7706,10 @@
         <v>42655</v>
       </c>
       <c r="B666">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C666">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7717,10 +7717,10 @@
         <v>42656</v>
       </c>
       <c r="B667">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7728,10 +7728,10 @@
         <v>42657</v>
       </c>
       <c r="B668">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7739,10 +7739,10 @@
         <v>42660</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7750,10 +7750,10 @@
         <v>42661</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7761,10 +7761,10 @@
         <v>42662</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7772,10 +7772,10 @@
         <v>42663</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7783,10 +7783,10 @@
         <v>42664</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7794,10 +7794,10 @@
         <v>42667</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7805,10 +7805,10 @@
         <v>42668</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7816,10 +7816,10 @@
         <v>42669</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7827,10 +7827,10 @@
         <v>42670</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7838,10 +7838,10 @@
         <v>42671</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7849,10 +7849,10 @@
         <v>42674</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7860,10 +7860,10 @@
         <v>42675</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7871,10 +7871,10 @@
         <v>42676</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7882,10 +7882,10 @@
         <v>42677</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7893,10 +7893,10 @@
         <v>42678</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7904,10 +7904,10 @@
         <v>42681</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7915,10 +7915,10 @@
         <v>42682</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7926,10 +7926,10 @@
         <v>42683</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7937,10 +7937,10 @@
         <v>42684</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7948,10 +7948,10 @@
         <v>42685</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7959,10 +7959,10 @@
         <v>42688</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7970,10 +7970,10 @@
         <v>42689</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7981,10 +7981,10 @@
         <v>42690</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7992,10 +7992,10 @@
         <v>42691</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8003,10 +8003,10 @@
         <v>42692</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8014,10 +8014,10 @@
         <v>42695</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8025,10 +8025,10 @@
         <v>42696</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8036,10 +8036,10 @@
         <v>42697</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8047,10 +8047,10 @@
         <v>42698</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8058,10 +8058,10 @@
         <v>42699</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8069,10 +8069,10 @@
         <v>42702</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8080,10 +8080,10 @@
         <v>42703</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8091,10 +8091,10 @@
         <v>42704</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8102,10 +8102,10 @@
         <v>42705</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8113,10 +8113,10 @@
         <v>42706</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8124,10 +8124,10 @@
         <v>42709</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8135,10 +8135,10 @@
         <v>42710</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8146,10 +8146,10 @@
         <v>42711</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8157,10 +8157,10 @@
         <v>42712</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8168,10 +8168,10 @@
         <v>42713</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8179,10 +8179,10 @@
         <v>42716</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8190,10 +8190,10 @@
         <v>42717</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8201,10 +8201,10 @@
         <v>42718</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8212,10 +8212,10 @@
         <v>42719</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8223,10 +8223,10 @@
         <v>42720</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8234,10 +8234,10 @@
         <v>42723</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8245,10 +8245,10 @@
         <v>42724</v>
       </c>
       <c r="B715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8256,10 +8256,10 @@
         <v>42725</v>
       </c>
       <c r="B716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8267,10 +8267,10 @@
         <v>42726</v>
       </c>
       <c r="B717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8278,10 +8278,10 @@
         <v>42727</v>
       </c>
       <c r="B718">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C718">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8289,10 +8289,10 @@
         <v>42730</v>
       </c>
       <c r="B719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C719">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8300,10 +8300,10 @@
         <v>42731</v>
       </c>
       <c r="B720">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C720">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8311,10 +8311,10 @@
         <v>42732</v>
       </c>
       <c r="B721">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C721">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8322,10 +8322,10 @@
         <v>42733</v>
       </c>
       <c r="B722">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C722">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8333,10 +8333,10 @@
         <v>42734</v>
       </c>
       <c r="B723">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C723">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8344,10 +8344,10 @@
         <v>42738</v>
       </c>
       <c r="B724">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C724">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8355,10 +8355,10 @@
         <v>42739</v>
       </c>
       <c r="B725">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C725">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8366,10 +8366,10 @@
         <v>42740</v>
       </c>
       <c r="B726">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C726">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8377,10 +8377,10 @@
         <v>42741</v>
       </c>
       <c r="B727">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C727">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8388,10 +8388,10 @@
         <v>42744</v>
       </c>
       <c r="B728">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C728">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8399,10 +8399,10 @@
         <v>42745</v>
       </c>
       <c r="B729">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C729">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8410,10 +8410,10 @@
         <v>42746</v>
       </c>
       <c r="B730">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C730">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8421,10 +8421,10 @@
         <v>42747</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8432,10 +8432,10 @@
         <v>42748</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8443,10 +8443,10 @@
         <v>42751</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8454,10 +8454,10 @@
         <v>42752</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8465,10 +8465,10 @@
         <v>42753</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8476,10 +8476,10 @@
         <v>42754</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8487,10 +8487,10 @@
         <v>42755</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8498,10 +8498,10 @@
         <v>42758</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8509,10 +8509,10 @@
         <v>42759</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8520,10 +8520,10 @@
         <v>42760</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8531,10 +8531,10 @@
         <v>42761</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8542,10 +8542,10 @@
         <v>42769</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8553,10 +8553,10 @@
         <v>42772</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8564,10 +8564,10 @@
         <v>42773</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8575,10 +8575,10 @@
         <v>42774</v>
       </c>
       <c r="B745">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8586,10 +8586,10 @@
         <v>42775</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8597,10 +8597,10 @@
         <v>42776</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8608,10 +8608,10 @@
         <v>42779</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8619,10 +8619,10 @@
         <v>42780</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8630,10 +8630,10 @@
         <v>42781</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8641,10 +8641,10 @@
         <v>42782</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8652,10 +8652,10 @@
         <v>42783</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8663,10 +8663,10 @@
         <v>42786</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8674,10 +8674,10 @@
         <v>42787</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8685,10 +8685,10 @@
         <v>42788</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8696,10 +8696,10 @@
         <v>42789</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8707,10 +8707,10 @@
         <v>42790</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8718,10 +8718,10 @@
         <v>42793</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8729,10 +8729,10 @@
         <v>42794</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8740,10 +8740,10 @@
         <v>42795</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8751,10 +8751,10 @@
         <v>42796</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8762,10 +8762,10 @@
         <v>42797</v>
       </c>
       <c r="B762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8773,10 +8773,10 @@
         <v>42800</v>
       </c>
       <c r="B763">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8784,10 +8784,10 @@
         <v>42801</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8795,10 +8795,10 @@
         <v>42802</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8806,10 +8806,10 @@
         <v>42803</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8817,10 +8817,10 @@
         <v>42804</v>
       </c>
       <c r="B767">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8828,10 +8828,10 @@
         <v>42807</v>
       </c>
       <c r="B768">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8839,10 +8839,10 @@
         <v>42808</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8850,10 +8850,10 @@
         <v>42809</v>
       </c>
       <c r="B770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8861,10 +8861,10 @@
         <v>42810</v>
       </c>
       <c r="B771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8872,10 +8872,10 @@
         <v>42811</v>
       </c>
       <c r="B772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8883,10 +8883,10 @@
         <v>42814</v>
       </c>
       <c r="B773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8894,10 +8894,10 @@
         <v>42815</v>
       </c>
       <c r="B774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8905,10 +8905,10 @@
         <v>42816</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8916,10 +8916,10 @@
         <v>42817</v>
       </c>
       <c r="B776">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8927,10 +8927,10 @@
         <v>42818</v>
       </c>
       <c r="B777">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C777">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8938,10 +8938,10 @@
         <v>42821</v>
       </c>
       <c r="B778">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C778">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8949,10 +8949,10 @@
         <v>42822</v>
       </c>
       <c r="B779">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C779">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8960,10 +8960,10 @@
         <v>42823</v>
       </c>
       <c r="B780">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C780">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8971,10 +8971,10 @@
         <v>42824</v>
       </c>
       <c r="B781">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C781">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -8982,10 +8982,10 @@
         <v>42825</v>
       </c>
       <c r="B782">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C782">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -8993,10 +8993,10 @@
         <v>42830</v>
       </c>
       <c r="B783">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C783">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9004,10 +9004,10 @@
         <v>42831</v>
       </c>
       <c r="B784">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C784">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9015,10 +9015,10 @@
         <v>42832</v>
       </c>
       <c r="B785">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C785">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9026,10 +9026,10 @@
         <v>42835</v>
       </c>
       <c r="B786">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C786">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9037,10 +9037,10 @@
         <v>42836</v>
       </c>
       <c r="B787">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C787">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9048,10 +9048,10 @@
         <v>42837</v>
       </c>
       <c r="B788">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C788">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9059,10 +9059,10 @@
         <v>42838</v>
       </c>
       <c r="B789">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C789">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9070,10 +9070,10 @@
         <v>42839</v>
       </c>
       <c r="B790">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C790">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9081,10 +9081,10 @@
         <v>42842</v>
       </c>
       <c r="B791">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C791">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9092,10 +9092,10 @@
         <v>42843</v>
       </c>
       <c r="B792">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C792">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9103,10 +9103,10 @@
         <v>42844</v>
       </c>
       <c r="B793">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C793">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9114,10 +9114,10 @@
         <v>42845</v>
       </c>
       <c r="B794">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C794">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9125,10 +9125,10 @@
         <v>42846</v>
       </c>
       <c r="B795">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C795">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9136,10 +9136,10 @@
         <v>42849</v>
       </c>
       <c r="B796">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C796">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9147,10 +9147,10 @@
         <v>42850</v>
       </c>
       <c r="B797">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C797">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9158,10 +9158,10 @@
         <v>42851</v>
       </c>
       <c r="B798">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C798">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9169,10 +9169,10 @@
         <v>42852</v>
       </c>
       <c r="B799">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C799">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9180,10 +9180,10 @@
         <v>42853</v>
       </c>
       <c r="B800">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C800">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9191,10 +9191,10 @@
         <v>42857</v>
       </c>
       <c r="B801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C801">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9202,10 +9202,10 @@
         <v>42858</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9213,10 +9213,10 @@
         <v>42859</v>
       </c>
       <c r="B803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9224,10 +9224,10 @@
         <v>42860</v>
       </c>
       <c r="B804">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9235,10 +9235,10 @@
         <v>42863</v>
       </c>
       <c r="B805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C805">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9246,10 +9246,10 @@
         <v>42864</v>
       </c>
       <c r="B806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C806">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9257,10 +9257,10 @@
         <v>42865</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9268,10 +9268,10 @@
         <v>42866</v>
       </c>
       <c r="B808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9279,10 +9279,10 @@
         <v>42867</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9290,10 +9290,10 @@
         <v>42870</v>
       </c>
       <c r="B810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9301,10 +9301,10 @@
         <v>42871</v>
       </c>
       <c r="B811">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C811">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:3">
